--- a/getTranslationFromDeepL/modifyByYYX/专业术语解释.xlsx
+++ b/getTranslationFromDeepL/modifyByYYX/专业术语解释.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YU Yixiong\Desktop\NowORNever1\getTranslationFromDeepL\modifyByYYX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUYixiong\Desktop\NowORNever1\getTranslationFromDeepL\modifyByYYX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C7C297-57B7-431E-B934-C600C5324273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FE1A5C-371F-4236-B4D7-8704D70CB0A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{F875205E-484C-494E-BE02-12920D46B55B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132" xr2:uid="{F875205E-484C-494E-BE02-12920D46B55B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Battery(Btry)</t>
   </si>
@@ -35,12 +35,18 @@
   <si>
     <t>Sector Operations Center</t>
   </si>
+  <si>
+    <t>TBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGAttacker </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +61,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,11 +106,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,307 +504,312 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>